--- a/test_result_data/hasil_uji_4.xlsx
+++ b/test_result_data/hasil_uji_4.xlsx
@@ -472,21 +472,21 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1.         0.60344828]</t>
+          <t>[0.         0.58333333]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[0.08 1.  ]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.14814815 0.75268817]</t>
+          <t>[0.         0.73684211]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="3">
@@ -500,21 +500,21 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1.         0.60344828]</t>
+          <t>[0.         0.58333333]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0.08 1.  ]</t>
+          <t>[0. 1.]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.14814815 0.75268817]</t>
+          <t>[0.         0.73684211]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="4">
@@ -528,21 +528,21 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0.85714286 0.64150943]</t>
+          <t>[1.         0.60344828]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0.24       0.97142857]</t>
+          <t>[0.08 1.  ]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.375      0.77272727]</t>
+          <t>[0.14814815 0.75268817]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="5">
@@ -556,21 +556,21 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[0.72727273 0.65306122]</t>
+          <t>[0.66666667 0.64583333]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[0.32       0.91428571]</t>
+          <t>[0.32       0.88571429]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.44444444 0.76190476]</t>
+          <t>[0.43243243 0.74698795]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6">
@@ -584,21 +584,21 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0.75       0.63461538]</t>
+          <t>[0.8        0.61818182]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0.24       0.94285714]</t>
+          <t>[0.16       0.97142857]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.36363636 0.75862069]</t>
+          <t>[0.26666667 0.75555556]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.65</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_4.xlsx
+++ b/test_result_data/hasil_uji_4.xlsx
@@ -442,7 +442,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Presisi</t>
+          <t>Precision</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -470,23 +470,17 @@
           <t>Naive Bayes</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[0.         0.58333333]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[0.         0.73684211]</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.603448275862069</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7526881720430108</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="3">
@@ -498,23 +492,17 @@
           <t>Support Vector Machine</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[0.         0.58333333]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[0. 1.]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[0.         0.73684211]</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.603448275862069</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7526881720430108</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -526,23 +514,17 @@
           <t>Multilayer Perceptron</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[1.         0.60344828]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0.08 1.  ]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0.14814815 0.75268817]</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0.6415094339622641</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9714285714285714</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7727272727272727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -554,20 +536,14 @@
           <t>Decision Tree</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[0.66666667 0.64583333]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[0.32       0.88571429]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0.43243243 0.74698795]</t>
-        </is>
+      <c r="C5" t="n">
+        <v>0.6458333333333334</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8857142857142857</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7469879518072288</v>
       </c>
       <c r="F5" t="n">
         <v>0.65</v>
@@ -582,23 +558,17 @@
           <t>Random Forest</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[0.8        0.61818182]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[0.16       0.97142857]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[0.26666667 0.75555556]</t>
-        </is>
+      <c r="C6" t="n">
+        <v>0.6153846153846154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7356321839080461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6333333333333333</v>
+        <v>0.6166666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/test_result_data/hasil_uji_4.xlsx
+++ b/test_result_data/hasil_uji_4.xlsx
@@ -537,16 +537,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6458333333333334</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8857142857142857</v>
+        <v>0.9142857142857143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7469879518072288</v>
+        <v>0.7619047619047618</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -559,16 +559,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7356321839080461</v>
+        <v>0.7555555555555554</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6166666666666667</v>
+        <v>0.6333333333333333</v>
       </c>
     </row>
   </sheetData>
